--- a/TestData/K_68Bus_SG_IBR_17.xlsx
+++ b/TestData/K_68Bus_SG_IBR_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB28F746-ECD4-48F8-94A2-CED6303CF49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CCECF-685B-42FB-9D41-4B519A7C979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3299,7 +3299,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+      <selection activeCell="I69" sqref="I69:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3398,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3463,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -3484,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3505,7 +3505,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3526,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3547,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3568,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3589,7 +3589,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3610,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3631,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3675,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3718,7 +3718,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3749,7 +3749,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3770,7 +3770,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -3801,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3822,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3843,7 +3843,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -3864,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3885,7 +3885,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -3906,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3927,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3978,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -3999,7 +3999,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -4020,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -4041,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -4062,7 +4062,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -4083,7 +4083,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -4104,7 +4104,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -4125,7 +4125,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -4167,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -4188,7 +4188,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -4209,7 +4209,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4230,7 +4230,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4251,7 +4251,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4272,7 +4272,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -4293,7 +4293,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -4314,7 +4314,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -4335,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -4356,7 +4356,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -4379,7 +4379,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -4402,7 +4402,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -4437,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -4458,7 +4458,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -4499,7 +4499,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -4520,7 +4520,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -4541,7 +4541,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4582,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4623,7 +4623,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -4644,7 +4644,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
